--- a/CHR_US_V1_Ang-2_MSD_Plates1-6_Data_NO_SKS_JH_4-7-2022.xlsx
+++ b/CHR_US_V1_Ang-2_MSD_Plates1-6_Data_NO_SKS_JH_4-7-2022.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B40749D-F409-4FE6-8972-C8EB52D7F890}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F549912-8432-404B-9FF5-6594233ED3B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ReadMe" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LongData!$B$1:$B$525</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LongData!$J$1:$J$525</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">WideData!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4904" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4905" uniqueCount="219">
   <si>
     <t>Plate Name</t>
   </si>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t>Patients</t>
+  </si>
+  <si>
+    <t>Average Sample Intraplate CV</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1800,7 @@
   <dimension ref="A1:T525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -31366,7 +31369,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50456,6 +50459,7 @@
       <c r="Q525" s="54"/>
     </row>
   </sheetData>
+  <autoFilter ref="J1:J525" xr:uid="{1B5D93BF-B58D-4544-996B-A85CFAF1CF59}"/>
   <sortState ref="A2:L527">
     <sortCondition ref="A2:A527"/>
     <sortCondition ref="B2:B527"/>
@@ -50471,7 +50475,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52472,17 +52476,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681F5012-95AD-40F4-A324-5CBC0E4D6B46}">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -53720,6 +53724,16 @@
         <v>17.054182274163356</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" s="61"/>
+      <c r="D70" s="71">
+        <f>AVERAGE(D2,D13,D24,D36,D47,D58)</f>
+        <v>19.150000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -53730,7 +53744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF02EBAA-07A7-4312-83A5-DB35D4FE70C4}">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A33" zoomScale="70" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="X92" sqref="X92"/>
     </sheetView>
   </sheetViews>
